--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3195.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3195.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9674627187174327</v>
+        <v>1.628928422927856</v>
       </c>
       <c r="B1">
-        <v>1.521676601415656</v>
+        <v>2.598803043365479</v>
       </c>
       <c r="C1">
-        <v>3.954158527998167</v>
+        <v>3.034539222717285</v>
       </c>
       <c r="D1">
-        <v>5.79034412142923</v>
+        <v>3.045434236526489</v>
       </c>
       <c r="E1">
-        <v>1.922577168985365</v>
+        <v>1.06139075756073</v>
       </c>
     </row>
   </sheetData>
